--- a/InventoryReport.xlsx
+++ b/InventoryReport.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cr01401\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CyberArkComplianceReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D48B9390-0DD7-42B8-B11E-CCC34BD7BB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EF264D-AC9B-4671-B2C6-C78042A961B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
     <sheet name="Filters" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Report!$A$1:$O$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Report!$A$1:$M$23</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="66">
   <si>
     <t>Safe</t>
   </si>
@@ -65,12 +65,6 @@
     <t>Failure reason</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>hostname</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -228,47 +222,14 @@
   </si>
   <si>
     <t>usr-lnxd-04</t>
-  </si>
-  <si>
-    <t>MSQL-01</t>
-  </si>
-  <si>
-    <t>ORA-DB-01</t>
-  </si>
-  <si>
-    <t>ORA-DB-02</t>
-  </si>
-  <si>
-    <t>ORA-DB-03</t>
-  </si>
-  <si>
-    <t>ORA-DB-04</t>
-  </si>
-  <si>
-    <t>LNX-01</t>
-  </si>
-  <si>
-    <t>LNX-02</t>
-  </si>
-  <si>
-    <t>LNX-03</t>
-  </si>
-  <si>
-    <t>LNX-04</t>
-  </si>
-  <si>
-    <t>LNX-DM-01</t>
-  </si>
-  <si>
-    <t>WIN-SRV-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -785,26 +746,23 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1161,21 +1119,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1215,766 +1173,696 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
       <c r="J2" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
       <c r="J3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="L10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="E19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="L23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K25" s="6"/>
+    </row>
+    <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K25" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O23"/>
+  <autoFilter ref="A1:M23" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
